--- a/StructureDefinition-unidad-clinica-hlf.xlsx
+++ b/StructureDefinition-unidad-clinica-hlf.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.0</t>
+    <t>0.4.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-30T15:47:06-04:00</t>
+    <t>2023-06-30T18:27:12-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-unidad-clinica-hlf.xlsx
+++ b/StructureDefinition-unidad-clinica-hlf.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$58</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$50</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2047" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1772" uniqueCount="321">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.0</t>
+    <t>0.7.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-30T18:27:12-04:00</t>
+    <t>2023-09-13T17:11:14-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -142,6 +142,10 @@
     <t>The details of a healthcare service available at a location.</t>
   </si>
   <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().ofType(canonical) | %resource.descendants().ofType(uri) | %resource.descendants().ofType(url))) or descendants().where(reference = '#').exists() or descendants().where(ofType(canonical) = '#').exists() or descendants().where(ofType(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
+  </si>
+  <si>
     <t>administrative.group</t>
   </si>
   <si>
@@ -346,10 +350,191 @@
     <t>Extensión que contiene un booleano que indica si la Unidad Clinica HLF es pediatrica</t>
   </si>
   <si>
-    <t>HealthcareService.extension:unidad-pediatrica.id</t>
-  </si>
-  <si>
-    <t>HealthcareService.extension.id</t>
+    <t>HealthcareService.extension:complejidad-unidad</t>
+  </si>
+  <si>
+    <t>complejidad-unidad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://hospitallaflorida.cl/fhir/hlfhosp/StructureDefinition/complejidad-unidad}
+</t>
+  </si>
+  <si>
+    <t>Complejidad de la Unidad Clinica HLF</t>
+  </si>
+  <si>
+    <t>HealthcareService.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and managable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R5/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>HealthcareService.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Identificador de la Unidad Clinica HLF</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>.id</t>
+  </si>
+  <si>
+    <t>Participant.identifier</t>
+  </si>
+  <si>
+    <t>HealthcareService.active</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>Whether this HealthcareService record is in active use</t>
+  </si>
+  <si>
+    <t>This flag is used to mark the record to not be used. This is not used when a center is closed for maintenance, or for holidays, the notAvailable period is to be used for this.</t>
+  </si>
+  <si>
+    <t>This element is labeled as a modifier because it may be used to mark that the resource was created in error.</t>
+  </si>
+  <si>
+    <t>This resource is generally assumed to be active if no value is provided for the active element</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>.statusCode</t>
+  </si>
+  <si>
+    <t>Participant.active</t>
+  </si>
+  <si>
+    <t>HealthcareService.providedBy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>Organizacion a la que pertenece la Unidad Clinica HLF</t>
+  </si>
+  <si>
+    <t>Organizacion a la que pertenece la Unidad Clinica HLF.</t>
+  </si>
+  <si>
+    <t>This property is recommended to be the same as the Location's managingOrganization, and if not provided should be interpreted as such. If the Location does not have a managing Organization, then this property should be populated.</t>
+  </si>
+  <si>
+    <t>.scopingRole.Organization</t>
+  </si>
+  <si>
+    <t>HealthcareService.offeredIn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(HealthcareService)
+</t>
+  </si>
+  <si>
+    <t>The service within which this service is offered</t>
+  </si>
+  <si>
+    <t>When the HealthcareService is representing a specific, schedulable service, the availableIn property can refer to a generic service.</t>
+  </si>
+  <si>
+    <t>For example, if there is a generic Radiology service that offers CT Scans, MRIs, etc.  You could have HealthcareService resources for the CT Scans and MRIs, which have an offeredIn reference to the Radiology HealthcareService.</t>
+  </si>
+  <si>
+    <t>HealthcareService.category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">service category
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Broad category of service being performed or delivered</t>
+  </si>
+  <si>
+    <t>Identifies the broad category of service being performed or delivered.</t>
+  </si>
+  <si>
+    <t>Selecting a Service Category then determines the list of relevant service types that can be selected in the primary service type.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>A category of the service(s) that could be provided.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/service-category</t>
+  </si>
+  <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>.code</t>
+  </si>
+  <si>
+    <t>HealthcareService.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">service type
+</t>
+  </si>
+  <si>
+    <t>Tipo de la Unidad Clinica HLF</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/service-type</t>
+  </si>
+  <si>
+    <t>.actrelationship[typeCode=COMP.act[classCode=ACT][moodCode=DEF].code</t>
+  </si>
+  <si>
+    <t>HealthcareService.specialty</t>
+  </si>
+  <si>
+    <t>Especialidad Médica de la Unidad Clinica HLF</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>A specialty that a healthcare service may provide.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/c80-practice-codes</t>
+  </si>
+  <si>
+    <t>HealthcareService.specialty.id</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -368,10 +553,13 @@
     <t>n/a</t>
   </si>
   <si>
-    <t>HealthcareService.extension:unidad-pediatrica.extension</t>
-  </si>
-  <si>
-    <t>HealthcareService.extension.extension</t>
+    <t>HealthcareService.specialty.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and managable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Extensions are always sliced by (at least) url</t>
@@ -380,108 +568,7 @@
     <t>Element.extension</t>
   </si>
   <si>
-    <t>HealthcareService.extension:unidad-pediatrica.url</t>
-  </si>
-  <si>
-    <t>HealthcareService.extension.url</t>
-  </si>
-  <si>
-    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
-  </si>
-  <si>
-    <t>https://hospitallaflorida.cl/fhir/hlfhosp/StructureDefinition/unidad-pediatrica</t>
-  </si>
-  <si>
-    <t>Extension.url</t>
-  </si>
-  <si>
-    <t>HealthcareService.extension:unidad-pediatrica.value[x]</t>
-  </si>
-  <si>
-    <t>HealthcareService.extension.value[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
-</t>
-  </si>
-  <si>
-    <t>Indica si la Unidad Clinica HLF es pediatrica</t>
-  </si>
-  <si>
-    <t>Extension.value[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ext-1
-</t>
-  </si>
-  <si>
-    <t>HealthcareService.extension:complejidad-unidad</t>
-  </si>
-  <si>
-    <t>complejidad-unidad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://hospitallaflorida.cl/fhir/hlfhosp/StructureDefinition/complejidad-unidad}
-</t>
-  </si>
-  <si>
-    <t>Complejidad Unidad Clinica HLF</t>
-  </si>
-  <si>
-    <t>Extensión para indicar la complejidad de la Unidad Clinica HLF</t>
-  </si>
-  <si>
-    <t>HealthcareService.extension:complejidad-unidad.id</t>
-  </si>
-  <si>
-    <t>HealthcareService.extension:complejidad-unidad.extension</t>
-  </si>
-  <si>
-    <t>HealthcareService.extension:complejidad-unidad.url</t>
-  </si>
-  <si>
-    <t>Complejidad de la Unidad Clinica HLF</t>
-  </si>
-  <si>
-    <t>https://hospitallaflorida.cl/fhir/hlfhosp/StructureDefinition/complejidad-unidad</t>
-  </si>
-  <si>
-    <t>HealthcareService.extension:complejidad-unidad.value[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>HealthcareService.extension:complejidad-unidad.value[x].id</t>
-  </si>
-  <si>
-    <t>HealthcareService.extension.value[x].id</t>
-  </si>
-  <si>
-    <t>HealthcareService.extension:complejidad-unidad.value[x].extension</t>
-  </si>
-  <si>
-    <t>HealthcareService.extension.value[x].extension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and managable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>HealthcareService.extension:complejidad-unidad.value[x].coding</t>
-  </si>
-  <si>
-    <t>HealthcareService.extension.value[x].coding</t>
+    <t>HealthcareService.specialty.coding</t>
   </si>
   <si>
     <t xml:space="preserve">Coding
@@ -506,22 +593,13 @@
     <t>union(., ./translation)</t>
   </si>
   <si>
-    <t>HealthcareService.extension:complejidad-unidad.value[x].coding.id</t>
-  </si>
-  <si>
-    <t>HealthcareService.extension.value[x].coding.id</t>
-  </si>
-  <si>
-    <t>HealthcareService.extension:complejidad-unidad.value[x].coding.extension</t>
-  </si>
-  <si>
-    <t>HealthcareService.extension.value[x].coding.extension</t>
-  </si>
-  <si>
-    <t>HealthcareService.extension:complejidad-unidad.value[x].coding.system</t>
-  </si>
-  <si>
-    <t>HealthcareService.extension.value[x].coding.system</t>
+    <t>HealthcareService.specialty.coding.id</t>
+  </si>
+  <si>
+    <t>HealthcareService.specialty.coding.extension</t>
+  </si>
+  <si>
+    <t>HealthcareService.specialty.coding.system</t>
   </si>
   <si>
     <t>Identity of the terminology system</t>
@@ -542,10 +620,7 @@
     <t>./codeSystem</t>
   </si>
   <si>
-    <t>HealthcareService.extension:complejidad-unidad.value[x].coding.version</t>
-  </si>
-  <si>
-    <t>HealthcareService.extension.value[x].coding.version</t>
+    <t>HealthcareService.specialty.coding.version</t>
   </si>
   <si>
     <t xml:space="preserve">string
@@ -567,22 +642,16 @@
     <t>./codeSystemVersion</t>
   </si>
   <si>
-    <t>HealthcareService.extension:complejidad-unidad.value[x].coding.code</t>
-  </si>
-  <si>
-    <t>HealthcareService.extension.value[x].coding.code</t>
-  </si>
-  <si>
-    <t>Symbol in syntax defined by the system</t>
-  </si>
-  <si>
-    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+    <t>HealthcareService.specialty.coding.code</t>
+  </si>
+  <si>
+    <t>Código de Especialidad Médica de la Unidad Clinica HLF</t>
   </si>
   <si>
     <t>Need to refer to a particular code in the system.</t>
   </si>
   <si>
-    <t>https://hospitallaflorida.cl/fhir/hlfhosp/ValueSet/VSComplejidadCama</t>
+    <t>https://hospitallaflorida.cl/fhir/hlfhosp/ValueSet/VSEspecialidadMedica</t>
   </si>
   <si>
     <t>Coding.code</t>
@@ -595,16 +664,10 @@
     <t>./code</t>
   </si>
   <si>
-    <t>HealthcareService.extension:complejidad-unidad.value[x].coding.display</t>
-  </si>
-  <si>
-    <t>HealthcareService.extension.value[x].coding.display</t>
-  </si>
-  <si>
-    <t>Representation defined by the system</t>
-  </si>
-  <si>
-    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+    <t>HealthcareService.specialty.coding.display</t>
+  </si>
+  <si>
+    <t>Nombre de Especialidad Médica de la Unidad Clinica HLF</t>
   </si>
   <si>
     <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
@@ -616,10 +679,7 @@
     <t>CV.displayName</t>
   </si>
   <si>
-    <t>HealthcareService.extension:complejidad-unidad.value[x].coding.userSelected</t>
-  </si>
-  <si>
-    <t>HealthcareService.extension.value[x].coding.userSelected</t>
+    <t>HealthcareService.specialty.coding.userSelected</t>
   </si>
   <si>
     <t>If this coding was chosen directly by the user</t>
@@ -640,10 +700,7 @@
     <t>CD.codingRationale</t>
   </si>
   <si>
-    <t>HealthcareService.extension:complejidad-unidad.value[x].text</t>
-  </si>
-  <si>
-    <t>HealthcareService.extension.value[x].text</t>
+    <t>HealthcareService.specialty.text</t>
   </si>
   <si>
     <t>Plain text representation of the concept</t>
@@ -662,168 +719,6 @@
   </si>
   <si>
     <t>./originalText[mediaType/code="text/plain"]/data</t>
-  </si>
-  <si>
-    <t>HealthcareService.modifierExtension</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and managable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R5/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>HealthcareService.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>Identificador de la Unidad Clinica HLF</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>.id</t>
-  </si>
-  <si>
-    <t>Participant.identifier</t>
-  </si>
-  <si>
-    <t>HealthcareService.active</t>
-  </si>
-  <si>
-    <t>Whether this HealthcareService record is in active use</t>
-  </si>
-  <si>
-    <t>This flag is used to mark the record to not be used. This is not used when a center is closed for maintenance, or for holidays, the notAvailable period is to be used for this.</t>
-  </si>
-  <si>
-    <t>This element is labeled as a modifier because it may be used to mark that the resource was created in error.</t>
-  </si>
-  <si>
-    <t>This resource is generally assumed to be active if no value is provided for the active element</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>.statusCode</t>
-  </si>
-  <si>
-    <t>Participant.active</t>
-  </si>
-  <si>
-    <t>HealthcareService.providedBy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
-  </si>
-  <si>
-    <t>Organizacion a la que pertenece la Unidad Clinica HLF</t>
-  </si>
-  <si>
-    <t>Organizacion a la que pertenece la Unidad Clinica HLF.</t>
-  </si>
-  <si>
-    <t>This property is recommended to be the same as the Location's managingOrganization, and if not provided should be interpreted as such. If the Location does not have a managing Organization, then this property should be populated.</t>
-  </si>
-  <si>
-    <t>.scopingRole.Organization</t>
-  </si>
-  <si>
-    <t>HealthcareService.offeredIn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(HealthcareService)
-</t>
-  </si>
-  <si>
-    <t>The service within which this service is offered</t>
-  </si>
-  <si>
-    <t>When the HealthcareService is representing a specific, schedulable service, the availableIn property can refer to a generic service.</t>
-  </si>
-  <si>
-    <t>For example, if there is a generic Radiology service that offers CT Scans, MRIs, etc.  You could have HealthcareService resources for the CT Scans and MRIs, which have an offeredIn reference to the Radiology HealthcareService.</t>
-  </si>
-  <si>
-    <t>HealthcareService.category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">service category
-</t>
-  </si>
-  <si>
-    <t>Broad category of service being performed or delivered</t>
-  </si>
-  <si>
-    <t>Identifies the broad category of service being performed or delivered.</t>
-  </si>
-  <si>
-    <t>Selecting a Service Category then determines the list of relevant service types that can be selected in the primary service type.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>A category of the service(s) that could be provided.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/service-category</t>
-  </si>
-  <si>
-    <t>FiveWs.class</t>
-  </si>
-  <si>
-    <t>.code</t>
-  </si>
-  <si>
-    <t>HealthcareService.type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">service type
-</t>
-  </si>
-  <si>
-    <t>Tipo de la Unidad Clinica HLF</t>
-  </si>
-  <si>
-    <t>Additional details about where the content was created (e.g. clinical specialty).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/service-type</t>
-  </si>
-  <si>
-    <t>.actrelationship[typeCode=COMP.act[classCode=ACT][moodCode=DEF].code</t>
-  </si>
-  <si>
-    <t>HealthcareService.specialty</t>
-  </si>
-  <si>
-    <t>Specialties handled by the HealthcareService</t>
-  </si>
-  <si>
-    <t>Collection of specialties handled by the Healthcare service. This is more of a medical term.</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>A specialty that a healthcare service may provide.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/c80-practice-codes</t>
   </si>
   <si>
     <t>HealthcareService.location</t>
@@ -1439,7 +1334,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM58"/>
+  <dimension ref="A1:AM50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1448,16 +1343,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="71.125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="52.68359375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="18.89453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="6" max="6" width="2.15234375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="2.15234375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="2.109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="2.109375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="44.65625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="43.4375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="19.12109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="6" max="6" width="2.203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="2.203125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="2.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="2.1875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="83.265625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="83.63671875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1466,25 +1361,25 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="9.60546875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="84.64453125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="64.07421875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="9.546875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="5.60546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="37.54296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="2.15234375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="2.15234375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="9.33984375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="84.06640625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="65.23828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="9.2890625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="5.484375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="36.5625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="2.203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="2.203125" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="19.75" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="69.58203125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="19.51953125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="19.578125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="69.52734375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="19.109375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1584,24 +1479,24 @@
         <v>35</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="AK1" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AL1" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AM1" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -1612,7 +1507,7 @@
         <v>36</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>35</v>
@@ -1621,19 +1516,19 @@
         <v>35</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -1683,13 +1578,13 @@
         <v>35</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>35</v>
@@ -1709,10 +1604,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1723,7 +1618,7 @@
         <v>36</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>35</v>
@@ -1732,16 +1627,16 @@
         <v>35</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1792,19 +1687,19 @@
         <v>35</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>35</v>
@@ -1818,10 +1713,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1832,28 +1727,28 @@
         <v>36</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>35</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -1903,19 +1798,19 @@
         <v>35</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>35</v>
@@ -1929,10 +1824,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1943,7 +1838,7 @@
         <v>36</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>35</v>
@@ -1955,16 +1850,16 @@
         <v>35</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -1990,13 +1885,13 @@
         <v>35</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA5" t="s" s="2">
         <v>35</v>
@@ -2014,19 +1909,19 @@
         <v>35</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>35</v>
@@ -2040,21 +1935,21 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>35</v>
@@ -2066,16 +1961,16 @@
         <v>35</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2125,25 +2020,25 @@
         <v>35</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM6" t="s" s="2">
         <v>35</v>
@@ -2151,14 +2046,14 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2177,16 +2072,16 @@
         <v>35</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2236,7 +2131,7 @@
         <v>35</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>36</v>
@@ -2245,7 +2140,7 @@
         <v>37</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>35</v>
@@ -2254,7 +2149,7 @@
         <v>35</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>35</v>
@@ -2262,10 +2157,10 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -2288,13 +2183,13 @@
         <v>35</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -2333,17 +2228,17 @@
         <v>35</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AC8" s="2"/>
       <c r="AD8" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>36</v>
@@ -2355,7 +2250,7 @@
         <v>35</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>35</v>
@@ -2369,13 +2264,13 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D9" t="s" s="2">
         <v>35</v>
@@ -2385,10 +2280,10 @@
         <v>36</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s" s="2">
         <v>35</v>
@@ -2397,13 +2292,13 @@
         <v>35</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -2454,7 +2349,7 @@
         <v>35</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>36</v>
@@ -2466,7 +2361,7 @@
         <v>35</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>35</v>
@@ -2480,12 +2375,14 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>106</v>
+      </c>
       <c r="D10" t="s" s="2">
         <v>35</v>
       </c>
@@ -2494,10 +2391,10 @@
         <v>36</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>35</v>
@@ -2506,13 +2403,13 @@
         <v>35</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>47</v>
+        <v>107</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -2563,25 +2460,25 @@
         <v>35</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>109</v>
+        <v>35</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>35</v>
+        <v>99</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>110</v>
+        <v>35</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>35</v>
@@ -2589,42 +2486,46 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>35</v>
+        <v>110</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>35</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="N11" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="O11" t="s" s="2">
+        <v>114</v>
+      </c>
       <c r="P11" t="s" s="2">
         <v>35</v>
       </c>
@@ -2660,19 +2561,19 @@
         <v>35</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>113</v>
+        <v>35</v>
       </c>
       <c r="AD11" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>96</v>
+        <v>35</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>36</v>
@@ -2684,13 +2585,13 @@
         <v>35</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>35</v>
+        <v>91</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>35</v>
@@ -2698,7 +2599,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>116</v>
@@ -2709,39 +2610,37 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>35</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>59</v>
+        <v>117</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>117</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>35</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>118</v>
+        <v>35</v>
       </c>
       <c r="S12" t="s" s="2">
         <v>35</v>
@@ -2783,36 +2682,36 @@
         <v>35</v>
       </c>
       <c r="AF12" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AG12" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH12" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI12" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AK12" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="AG12" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH12" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI12" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AJ12" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AK12" t="s" s="2">
-        <v>35</v>
-      </c>
       <c r="AL12" t="s" s="2">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>35</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2820,35 +2719,39 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="N13" s="2"/>
+        <v>125</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>126</v>
+      </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="Q13" s="2"/>
+      <c r="Q13" t="s" s="2">
+        <v>127</v>
+      </c>
       <c r="R13" t="s" s="2">
         <v>35</v>
       </c>
@@ -2892,40 +2795,38 @@
         <v>35</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>125</v>
+        <v>35</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>35</v>
+        <v>128</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>90</v>
+        <v>129</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>35</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="C14" t="s" s="2">
-        <v>127</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
         <v>35</v>
       </c>
@@ -2934,27 +2835,29 @@
         <v>36</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>35</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="N14" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>35</v>
@@ -3003,25 +2906,25 @@
         <v>35</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>97</v>
+        <v>131</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>35</v>
+        <v>136</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>35</v>
@@ -3029,10 +2932,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3043,7 +2946,7 @@
         <v>36</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>35</v>
@@ -3055,15 +2958,17 @@
         <v>35</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>47</v>
+        <v>138</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>106</v>
+        <v>139</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="N15" s="2"/>
+        <v>140</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>35</v>
@@ -3112,25 +3017,25 @@
         <v>35</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>109</v>
+        <v>35</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>110</v>
+        <v>35</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>35</v>
@@ -3138,21 +3043,21 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>112</v>
+        <v>142</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>35</v>
+        <v>143</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>35</v>
@@ -3161,18 +3066,20 @@
         <v>35</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>92</v>
+        <v>144</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>93</v>
+        <v>145</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="N16" s="2"/>
+        <v>146</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>35</v>
@@ -3197,31 +3104,31 @@
         <v>35</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>35</v>
+        <v>148</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>35</v>
+        <v>149</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>35</v>
+        <v>150</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>113</v>
+        <v>35</v>
       </c>
       <c r="AD16" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>96</v>
+        <v>35</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>36</v>
@@ -3233,13 +3140,13 @@
         <v>35</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>35</v>
+        <v>151</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>35</v>
+        <v>152</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>35</v>
@@ -3247,50 +3154,48 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>116</v>
+        <v>153</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>35</v>
+        <v>154</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>35</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>59</v>
+        <v>144</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>134</v>
+        <v>155</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>117</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>35</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>135</v>
+        <v>35</v>
       </c>
       <c r="S17" t="s" s="2">
         <v>35</v>
@@ -3308,13 +3213,11 @@
         <v>35</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Y17" t="s" s="2">
-        <v>35</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="Y17" s="2"/>
       <c r="Z17" t="s" s="2">
-        <v>35</v>
+        <v>156</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>35</v>
@@ -3332,25 +3235,25 @@
         <v>35</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>119</v>
+        <v>153</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>90</v>
+        <v>157</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>35</v>
@@ -3358,10 +3261,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>121</v>
+        <v>158</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3369,28 +3272,28 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>35</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>134</v>
+        <v>159</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>134</v>
+        <v>159</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3417,13 +3320,13 @@
         <v>35</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>35</v>
+        <v>160</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>35</v>
+        <v>161</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>35</v>
+        <v>162</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>35</v>
@@ -3441,25 +3344,25 @@
         <v>35</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>124</v>
+        <v>158</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>125</v>
+        <v>35</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>90</v>
+        <v>157</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>35</v>
@@ -3467,10 +3370,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>138</v>
+        <v>163</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3481,7 +3384,7 @@
         <v>36</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>35</v>
@@ -3493,13 +3396,13 @@
         <v>35</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>106</v>
+        <v>164</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>107</v>
+        <v>165</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3550,16 +3453,16 @@
         <v>35</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>108</v>
+        <v>166</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>109</v>
+        <v>167</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>35</v>
@@ -3568,7 +3471,7 @@
         <v>35</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>110</v>
+        <v>168</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>35</v>
@@ -3576,14 +3479,14 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>140</v>
+        <v>169</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>142</v>
+        <v>110</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -3602,16 +3505,16 @@
         <v>35</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>143</v>
+        <v>170</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>144</v>
+        <v>171</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>145</v>
+        <v>113</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -3649,19 +3552,19 @@
         <v>35</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>113</v>
+        <v>172</v>
       </c>
       <c r="AD20" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>114</v>
+        <v>173</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>36</v>
@@ -3673,13 +3576,13 @@
         <v>35</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>110</v>
+        <v>168</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>35</v>
@@ -3687,10 +3590,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>146</v>
+        <v>174</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>147</v>
+        <v>174</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3710,22 +3613,22 @@
         <v>35</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>150</v>
+        <v>177</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>151</v>
+        <v>178</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>152</v>
+        <v>179</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>35</v>
@@ -3774,7 +3677,7 @@
         <v>35</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>153</v>
+        <v>180</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>36</v>
@@ -3786,13 +3689,13 @@
         <v>35</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>154</v>
+        <v>181</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>35</v>
@@ -3800,10 +3703,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>155</v>
+        <v>182</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>156</v>
+        <v>182</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3814,7 +3717,7 @@
         <v>36</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>35</v>
@@ -3826,13 +3729,13 @@
         <v>35</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>106</v>
+        <v>164</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>107</v>
+        <v>165</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3883,16 +3786,16 @@
         <v>35</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>108</v>
+        <v>166</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>109</v>
+        <v>167</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>35</v>
@@ -3901,7 +3804,7 @@
         <v>35</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>110</v>
+        <v>168</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>35</v>
@@ -3909,14 +3812,14 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>157</v>
+        <v>183</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>142</v>
+        <v>110</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -3935,16 +3838,16 @@
         <v>35</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>143</v>
+        <v>170</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>144</v>
+        <v>171</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>145</v>
+        <v>113</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -3982,19 +3885,19 @@
         <v>35</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>113</v>
+        <v>172</v>
       </c>
       <c r="AD23" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>114</v>
+        <v>173</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>36</v>
@@ -4006,13 +3909,13 @@
         <v>35</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>110</v>
+        <v>168</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>35</v>
@@ -4020,10 +3923,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>160</v>
+        <v>184</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4034,7 +3937,7 @@
         <v>36</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>35</v>
@@ -4043,22 +3946,22 @@
         <v>35</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>161</v>
+        <v>185</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>162</v>
+        <v>186</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>163</v>
+        <v>187</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>164</v>
+        <v>188</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>35</v>
@@ -4107,25 +4010,25 @@
         <v>35</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>165</v>
+        <v>189</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>166</v>
+        <v>190</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>35</v>
@@ -4133,10 +4036,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>167</v>
+        <v>191</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>168</v>
+        <v>191</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4147,7 +4050,7 @@
         <v>36</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>35</v>
@@ -4156,19 +4059,19 @@
         <v>35</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>169</v>
+        <v>192</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>170</v>
+        <v>193</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4218,25 +4121,25 @@
         <v>35</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>173</v>
+        <v>196</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>174</v>
+        <v>197</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>35</v>
@@ -4244,10 +4147,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>175</v>
+        <v>198</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4255,32 +4158,32 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>35</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>177</v>
+        <v>199</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>35</v>
@@ -4305,11 +4208,11 @@
         <v>35</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Y26" s="2"/>
       <c r="Z26" t="s" s="2">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>35</v>
@@ -4327,25 +4230,25 @@
         <v>35</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>35</v>
@@ -4353,10 +4256,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4364,32 +4267,32 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>35</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>169</v>
+        <v>192</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>35</v>
@@ -4438,25 +4341,25 @@
         <v>35</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>35</v>
@@ -4464,10 +4367,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4478,7 +4381,7 @@
         <v>36</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>35</v>
@@ -4487,22 +4390,22 @@
         <v>35</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>35</v>
@@ -4551,25 +4454,25 @@
         <v>35</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>35</v>
@@ -4577,10 +4480,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4591,7 +4494,7 @@
         <v>36</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>35</v>
@@ -4600,22 +4503,22 @@
         <v>35</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>169</v>
+        <v>192</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>35</v>
@@ -4664,25 +4567,25 @@
         <v>35</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>35</v>
@@ -4690,14 +4593,14 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>142</v>
+        <v>35</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -4710,26 +4613,22 @@
         <v>35</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>92</v>
+        <v>225</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>210</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>35</v>
       </c>
@@ -4777,7 +4676,7 @@
         <v>35</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>36</v>
@@ -4789,13 +4688,13 @@
         <v>35</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>35</v>
+        <v>228</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>90</v>
+        <v>229</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>35</v>
@@ -4803,10 +4702,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>212</v>
+        <v>230</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>212</v>
+        <v>230</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4814,28 +4713,28 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>35</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4886,36 +4785,36 @@
         <v>35</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>212</v>
+        <v>230</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>215</v>
+        <v>35</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>217</v>
+        <v>233</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>218</v>
+        <v>234</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>218</v>
+        <v>234</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4926,36 +4825,34 @@
         <v>36</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>35</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>122</v>
+        <v>235</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="Q32" t="s" s="2">
-        <v>222</v>
-      </c>
+      <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
         <v>35</v>
       </c>
@@ -4999,36 +4896,36 @@
         <v>35</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>218</v>
+        <v>234</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>223</v>
+        <v>35</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>225</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>226</v>
+        <v>240</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>226</v>
+        <v>240</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5039,29 +4936,27 @@
         <v>36</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>35</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>230</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>35</v>
@@ -5110,25 +5005,25 @@
         <v>35</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>226</v>
+        <v>240</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>35</v>
@@ -5136,10 +5031,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5150,7 +5045,7 @@
         <v>36</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>35</v>
@@ -5159,20 +5054,18 @@
         <v>35</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>236</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>35</v>
@@ -5221,25 +5114,25 @@
         <v>35</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>35</v>
+        <v>248</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>35</v>
@@ -5247,14 +5140,14 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>238</v>
+        <v>35</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -5270,21 +5163,23 @@
         <v>35</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>137</v>
+        <v>250</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="O35" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="O35" t="s" s="2">
+        <v>254</v>
+      </c>
       <c r="P35" t="s" s="2">
         <v>35</v>
       </c>
@@ -5308,13 +5203,13 @@
         <v>35</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>242</v>
+        <v>35</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>243</v>
+        <v>35</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>244</v>
+        <v>35</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>35</v>
@@ -5332,7 +5227,7 @@
         <v>35</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>36</v>
@@ -5344,13 +5239,13 @@
         <v>35</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>245</v>
+        <v>35</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>246</v>
+        <v>35</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>35</v>
@@ -5358,41 +5253,43 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>248</v>
+        <v>35</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>35</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>137</v>
+        <v>225</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>257</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>258</v>
+      </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>35</v>
@@ -5417,13 +5314,13 @@
         <v>35</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>242</v>
+        <v>35</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>250</v>
+        <v>35</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>251</v>
+        <v>35</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>35</v>
@@ -5441,7 +5338,7 @@
         <v>35</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>36</v>
@@ -5453,13 +5350,13 @@
         <v>35</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>35</v>
@@ -5467,10 +5364,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5490,18 +5387,20 @@
         <v>35</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>262</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>263</v>
+      </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>35</v>
@@ -5526,13 +5425,13 @@
         <v>35</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>256</v>
+        <v>148</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>35</v>
@@ -5550,7 +5449,7 @@
         <v>35</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>36</v>
@@ -5562,13 +5461,13 @@
         <v>35</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>35</v>
@@ -5576,10 +5475,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5599,16 +5498,16 @@
         <v>35</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5659,7 +5558,7 @@
         <v>35</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>36</v>
@@ -5671,13 +5570,13 @@
         <v>35</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>263</v>
+        <v>35</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>264</v>
+        <v>35</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>35</v>
@@ -5685,10 +5584,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5696,28 +5595,28 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>35</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>169</v>
+        <v>192</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>266</v>
+        <v>164</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>266</v>
+        <v>165</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5768,47 +5667,47 @@
         <v>35</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>265</v>
+        <v>166</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>35</v>
+        <v>167</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>267</v>
+        <v>168</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>268</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>35</v>
+        <v>110</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>35</v>
@@ -5817,19 +5716,19 @@
         <v>35</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>270</v>
+        <v>93</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>271</v>
+        <v>170</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>272</v>
+        <v>171</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>273</v>
+        <v>113</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -5879,25 +5778,25 @@
         <v>35</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>269</v>
+        <v>173</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>57</v>
+        <v>99</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>274</v>
+        <v>168</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>35</v>
@@ -5905,42 +5804,46 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>35</v>
+        <v>273</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>35</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>270</v>
+        <v>93</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
+        <v>275</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="O41" t="s" s="2">
+        <v>114</v>
+      </c>
       <c r="P41" t="s" s="2">
         <v>35</v>
       </c>
@@ -5988,25 +5891,25 @@
         <v>35</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>57</v>
+        <v>99</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>278</v>
+        <v>91</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>35</v>
@@ -6014,10 +5917,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6028,7 +5931,7 @@
         <v>36</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>35</v>
@@ -6037,16 +5940,16 @@
         <v>35</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>280</v>
+        <v>144</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6073,10 +5976,10 @@
         <v>35</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>35</v>
+        <v>148</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>35</v>
+        <v>280</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>35</v>
@@ -6097,25 +6000,25 @@
         <v>35</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>35</v>
@@ -6123,10 +6026,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6137,7 +6040,7 @@
         <v>36</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>35</v>
@@ -6149,20 +6052,18 @@
         <v>35</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>285</v>
+        <v>235</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>289</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>35</v>
       </c>
@@ -6210,25 +6111,25 @@
         <v>35</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>35</v>
+        <v>285</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>35</v>
@@ -6236,10 +6137,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6262,16 +6163,16 @@
         <v>35</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>260</v>
+        <v>144</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -6297,13 +6198,13 @@
         <v>35</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>35</v>
+        <v>148</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>35</v>
+        <v>290</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>35</v>
+        <v>291</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>35</v>
@@ -6321,7 +6222,7 @@
         <v>35</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>36</v>
@@ -6333,13 +6234,13 @@
         <v>35</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>35</v>
@@ -6347,10 +6248,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6373,16 +6274,16 @@
         <v>35</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="N45" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>298</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -6408,13 +6309,13 @@
         <v>35</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>242</v>
+        <v>148</v>
       </c>
       <c r="Y45" t="s" s="2">
         <v>297</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>35</v>
@@ -6432,7 +6333,7 @@
         <v>35</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>36</v>
@@ -6444,13 +6345,13 @@
         <v>35</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>35</v>
@@ -6458,10 +6359,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6484,15 +6385,17 @@
         <v>35</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="N46" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="L46" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>35</v>
@@ -6517,13 +6420,13 @@
         <v>35</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>35</v>
@@ -6541,7 +6444,7 @@
         <v>35</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>36</v>
@@ -6553,7 +6456,7 @@
         <v>35</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>35</v>
@@ -6567,10 +6470,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6581,7 +6484,7 @@
         <v>36</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>35</v>
@@ -6593,13 +6496,13 @@
         <v>35</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>106</v>
+        <v>304</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>107</v>
+        <v>305</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6626,13 +6529,13 @@
         <v>35</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>35</v>
+        <v>148</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>35</v>
+        <v>306</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>35</v>
+        <v>307</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>35</v>
@@ -6650,25 +6553,25 @@
         <v>35</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>108</v>
+        <v>303</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>109</v>
+        <v>35</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>110</v>
+        <v>292</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>35</v>
@@ -6676,21 +6579,21 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>142</v>
+        <v>35</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>35</v>
@@ -6702,17 +6605,15 @@
         <v>35</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>92</v>
+        <v>123</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>143</v>
+        <v>309</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>145</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>35</v>
@@ -6761,25 +6662,25 @@
         <v>35</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>114</v>
+        <v>308</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>110</v>
+        <v>292</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>35</v>
@@ -6787,14 +6688,14 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>308</v>
+        <v>35</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -6807,26 +6708,24 @@
         <v>35</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>92</v>
+        <v>312</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>210</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>35</v>
       </c>
@@ -6886,13 +6785,13 @@
         <v>35</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>90</v>
+        <v>316</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>35</v>
@@ -6900,10 +6799,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -6914,7 +6813,7 @@
         <v>36</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>35</v>
@@ -6926,13 +6825,13 @@
         <v>35</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>137</v>
+        <v>318</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -6959,10 +6858,10 @@
         <v>35</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>242</v>
+        <v>35</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>315</v>
+        <v>35</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>35</v>
@@ -6983,914 +6882,32 @@
         <v>35</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>300</v>
+        <v>168</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="51" hidden="true">
-      <c r="A51" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="B51" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="C51" s="2"/>
-      <c r="D51" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="E51" s="2"/>
-      <c r="F51" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="G51" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H51" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="I51" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="J51" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="K51" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="O51" s="2"/>
-      <c r="P51" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Q51" s="2"/>
-      <c r="R51" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="S51" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="T51" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="U51" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="V51" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="W51" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="X51" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Y51" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Z51" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AA51" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AB51" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AC51" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AD51" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AE51" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AF51" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="AG51" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH51" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI51" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AJ51" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="AM51" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="52" hidden="true">
-      <c r="A52" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="B52" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="C52" s="2"/>
-      <c r="D52" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="E52" s="2"/>
-      <c r="F52" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="G52" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="H52" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="I52" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="J52" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="K52" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="O52" s="2"/>
-      <c r="P52" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Q52" s="2"/>
-      <c r="R52" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="S52" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="T52" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="U52" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="V52" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="W52" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="X52" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="Y52" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="Z52" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="AA52" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AD52" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AE52" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AF52" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="AG52" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="53" hidden="true">
-      <c r="A53" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="B53" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="C53" s="2"/>
-      <c r="D53" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="E53" s="2"/>
-      <c r="F53" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="G53" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="H53" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="I53" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="J53" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="K53" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="O53" s="2"/>
-      <c r="P53" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Q53" s="2"/>
-      <c r="R53" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="S53" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="T53" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="U53" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="V53" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="W53" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="X53" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="Y53" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="Z53" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="AA53" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AD53" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AE53" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AF53" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="54" hidden="true">
-      <c r="A54" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="B54" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="C54" s="2"/>
-      <c r="D54" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="E54" s="2"/>
-      <c r="F54" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="G54" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="H54" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="I54" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="J54" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="K54" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="O54" s="2"/>
-      <c r="P54" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Q54" s="2"/>
-      <c r="R54" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="S54" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="T54" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="U54" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="V54" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="W54" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="X54" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Y54" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="Z54" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA54" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AE54" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AF54" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="55" hidden="true">
-      <c r="A55" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="B55" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="C55" s="2"/>
-      <c r="D55" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="E55" s="2"/>
-      <c r="F55" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="G55" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="H55" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="I55" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="J55" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="K55" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
-      <c r="P55" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Q55" s="2"/>
-      <c r="R55" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="S55" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="T55" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="U55" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="V55" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="W55" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="X55" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="Y55" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="Z55" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="AA55" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AB55" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AD55" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AE55" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AF55" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="AG55" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="56" hidden="true">
-      <c r="A56" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="B56" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="C56" s="2"/>
-      <c r="D56" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="E56" s="2"/>
-      <c r="F56" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="G56" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H56" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="I56" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="J56" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="K56" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="N56" s="2"/>
-      <c r="O56" s="2"/>
-      <c r="P56" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Q56" s="2"/>
-      <c r="R56" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="S56" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="T56" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="U56" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="V56" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="W56" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="X56" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Y56" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Z56" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AA56" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AE56" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AF56" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="AG56" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AK56" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="57" hidden="true">
-      <c r="A57" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="B57" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="C57" s="2"/>
-      <c r="D57" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="E57" s="2"/>
-      <c r="F57" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="G57" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="H57" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="I57" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="J57" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="K57" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="O57" s="2"/>
-      <c r="P57" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Q57" s="2"/>
-      <c r="R57" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="S57" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="T57" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="U57" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="V57" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="W57" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="X57" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Y57" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Z57" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="58" hidden="true">
-      <c r="A58" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="B58" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="C58" s="2"/>
-      <c r="D58" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="E58" s="2"/>
-      <c r="F58" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="G58" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="H58" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="I58" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="J58" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="K58" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="N58" s="2"/>
-      <c r="O58" s="2"/>
-      <c r="P58" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Q58" s="2"/>
-      <c r="R58" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="S58" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="T58" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="U58" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="V58" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="W58" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="X58" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Y58" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Z58" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AA58" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AD58" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AE58" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AF58" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="AM58" t="s" s="2">
         <v>35</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM58">
+  <autoFilter ref="A1:AM50">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -7900,7 +6917,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI57">
+  <conditionalFormatting sqref="A2:AI49">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
